--- a/src/main/resources/templates/userRecordTemplate.xlsx
+++ b/src/main/resources/templates/userRecordTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinpper\Desktop\oa\OA\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A8E613-FF24-4045-906F-95B973CFE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4FFADE-812F-4978-AEAB-A56219987284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="5565" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8865" yWindow="2745" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,8 +400,7 @@
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="4" max="5" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
